--- a/evaluation/results/isolation_forest/augmented/shift_2/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_2/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8985765124555161</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="C2">
-        <v>0.2456140350877193</v>
+        <v>0.0625</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="E2">
-        <v>0.3294117647058823</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="F2">
-        <v>0.4142011834319527</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="G2">
-        <v>0.4808454425363276</v>
+        <v>0.5599250936329588</v>
       </c>
       <c r="H2">
-        <v>0.7097378277153558</v>
+        <v>0.7259898341359015</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="K2">
-        <v>491</v>
+        <v>189</v>
       </c>
       <c r="L2">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9722772277227723</v>
+        <v>0.9742268041237113</v>
       </c>
       <c r="C2">
-        <v>0.9194756554307116</v>
+        <v>0.3539325842696629</v>
       </c>
       <c r="D2">
-        <v>0.9451395572666025</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2456140350877193</v>
+        <v>0.0625</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="D3">
-        <v>0.3294117647058823</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8985765124555161</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="C4">
-        <v>0.8985765124555161</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="D4">
-        <v>0.8985765124555161</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="E4">
-        <v>0.8985765124555161</v>
+        <v>0.3772241992882562</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6089456314052457</v>
+        <v>0.5183634020618557</v>
       </c>
       <c r="C5">
-        <v>0.7097378277153559</v>
+        <v>0.5876805778491172</v>
       </c>
       <c r="D5">
-        <v>0.6372756609862424</v>
+        <v>0.3176961926961927</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9360733675914884</v>
+        <v>0.928802692886231</v>
       </c>
       <c r="C6">
-        <v>0.8985765124555161</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="D6">
-        <v>0.9144627277440044</v>
+        <v>0.4991490320671815</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>491</v>
+        <v>189</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
